--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed2/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.42</v>
+        <v>16.272</v>
       </c>
     </row>
     <row r="4">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.438</v>
+        <v>16.541</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.084</v>
+        <v>17.493</v>
       </c>
     </row>
     <row r="26">
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.726</v>
+        <v>16.639</v>
       </c>
     </row>
     <row r="54">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.556</v>
       </c>
     </row>
     <row r="58">
@@ -1443,7 +1443,7 @@
         <v>-9.48</v>
       </c>
       <c r="E59" t="n">
-        <v>16.084</v>
+        <v>16.305</v>
       </c>
     </row>
     <row r="60">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.428</v>
+        <v>17.563</v>
       </c>
     </row>
     <row r="70">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.624</v>
+        <v>17.195</v>
       </c>
     </row>
     <row r="80">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.412</v>
+        <v>16.535</v>
       </c>
     </row>
     <row r="84">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.256</v>
+        <v>17.103</v>
       </c>
     </row>
     <row r="94">
